--- a/level-3/atcoder/phase-3-2-regular-contests/atcoder-phase-3-2-regular-contests.xlsx
+++ b/level-3/atcoder/phase-3-2-regular-contests/atcoder-phase-3-2-regular-contests.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205473E1-E970-426E-8379-E4E8E6D16796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAADF171-9843-4D54-8939-7B480D58E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="atcoder level 3.2" sheetId="1" r:id="rId1"/>
+    <sheet name="atcoder 3.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -616,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -633,10 +644,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,7 +665,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +679,581 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="196">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1756,39 +2338,39 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="59" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="3">
         <f>COUNTA(B3:B861)</f>
         <v>71</v>
@@ -1819,7 +2401,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1836,7 +2418,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1853,7 +2435,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1870,7 +2452,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1887,7 +2469,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1904,7 +2486,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1921,7 +2503,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1938,7 +2520,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1955,24 +2537,24 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1989,7 +2571,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2006,58 +2588,58 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2074,7 +2656,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2091,7 +2673,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2108,7 +2690,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2125,7 +2707,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2142,7 +2724,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2159,41 +2741,41 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2210,7 +2792,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2227,7 +2809,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2244,7 +2826,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2261,7 +2843,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2278,7 +2860,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2295,7 +2877,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2312,7 +2894,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2329,7 +2911,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2346,24 +2928,24 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2380,7 +2962,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2397,7 +2979,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2414,7 +2996,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2431,24 +3013,24 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2465,7 +3047,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2482,7 +3064,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2499,24 +3081,24 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2533,7 +3115,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -2550,7 +3132,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2567,24 +3149,24 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2601,7 +3183,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2618,24 +3200,24 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2652,7 +3234,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2669,24 +3251,24 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2703,7 +3285,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2720,92 +3302,92 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -2822,7 +3404,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2839,7 +3421,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2856,24 +3438,24 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2890,7 +3472,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2907,7 +3489,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -2924,7 +3506,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2941,7 +3523,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -2958,24 +3540,24 @@
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -2992,7 +3574,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3009,34 +3591,34 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="5"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -3046,7 +3628,7 @@
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="5"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -3056,7 +3638,7 @@
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="5"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -3066,7 +3648,7 @@
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="5"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -3076,7 +3658,7 @@
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="5"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -3086,17 +3668,17 @@
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="5"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -3106,7 +3688,7 @@
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="5"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -3116,8 +3698,8 @@
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3126,8 +3708,8 @@
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -3136,8 +3718,8 @@
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -3146,8 +3728,8 @@
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -3156,8 +3738,8 @@
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -3166,18 +3748,18 @@
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="B89" s="14"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -3186,8 +3768,8 @@
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -3196,8 +3778,8 @@
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="14"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -3206,8 +3788,8 @@
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -3216,8 +3798,8 @@
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="B93" s="14"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -3226,8 +3808,8 @@
       <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -3236,8 +3818,8 @@
       <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="14"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -3246,18 +3828,18 @@
       <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16"/>
-      <c r="B97" s="14"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -3266,8 +3848,8 @@
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="14"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -3276,32 +3858,32 @@
       <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16"/>
-      <c r="B99" s="14"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="13"/>
       <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
-      <c r="B100" s="14"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="13"/>
       <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="13"/>
       <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="13"/>
       <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="13"/>
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="5"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -3311,7 +3893,7 @@
       <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="5"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -3321,7 +3903,7 @@
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="5"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -3331,7 +3913,7 @@
       <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="5"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -3341,7 +3923,7 @@
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
+      <c r="A108" s="15"/>
       <c r="B108" s="5"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -3351,7 +3933,7 @@
       <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="5"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -3361,7 +3943,7 @@
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="5"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -3371,7 +3953,7 @@
       <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
+      <c r="A111" s="15"/>
       <c r="B111" s="5"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -3381,17 +3963,17 @@
       <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="16"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="5"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -3401,7 +3983,7 @@
       <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16"/>
+      <c r="A114" s="15"/>
       <c r="B114" s="5"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -3411,37 +3993,37 @@
       <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16"/>
+      <c r="A116" s="15"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
       <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16"/>
+      <c r="A117" s="15"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="5"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -3451,7 +4033,7 @@
       <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
+      <c r="A119" s="15"/>
       <c r="B119" s="5"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3461,7 +4043,7 @@
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="5"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -3471,7 +4053,7 @@
       <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="5"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3481,7 +4063,7 @@
       <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="5"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -3491,7 +4073,7 @@
       <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16"/>
+      <c r="A123" s="15"/>
       <c r="B123" s="5"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -3501,27 +4083,27 @@
       <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16"/>
+      <c r="A124" s="15"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
       <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16"/>
+      <c r="A125" s="15"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
       <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="5"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -3531,7 +4113,7 @@
       <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="5"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -3541,7 +4123,7 @@
       <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16"/>
+      <c r="A128" s="15"/>
       <c r="B128" s="5"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3551,7 +4133,7 @@
       <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="5"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -3561,7 +4143,7 @@
       <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="5"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -3571,7 +4153,7 @@
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="16"/>
+      <c r="A131" s="15"/>
       <c r="B131" s="5"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -3581,7 +4163,7 @@
       <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="16"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="5"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -3591,7 +4173,7 @@
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="5"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -3601,7 +4183,7 @@
       <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="16"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="5"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -3611,17 +4193,17 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="16"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
       <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="16"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="5"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -3631,7 +4213,7 @@
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="16"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="5"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -3641,7 +4223,7 @@
       <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="16"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="5"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -3651,7 +4233,7 @@
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="16"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="5"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -3661,17 +4243,17 @@
       <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="16"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="16"/>
+      <c r="A141" s="15"/>
       <c r="B141" s="5"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -3681,7 +4263,7 @@
       <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="16"/>
+      <c r="A142" s="15"/>
       <c r="B142" s="5"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -3691,7 +4273,7 @@
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="16"/>
+      <c r="A143" s="15"/>
       <c r="B143" s="5"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -3701,17 +4283,17 @@
       <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="16"/>
+      <c r="A144" s="15"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="16"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="5"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -3721,7 +4303,7 @@
       <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="16"/>
+      <c r="A146" s="15"/>
       <c r="B146" s="5"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -3731,7 +4313,7 @@
       <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="16"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="5"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -3741,17 +4323,17 @@
       <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="16"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="16"/>
+      <c r="A149" s="15"/>
       <c r="B149" s="5"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -3761,7 +4343,7 @@
       <c r="H149" s="8"/>
     </row>
     <row r="150" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="16"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="5"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -3771,17 +4353,17 @@
       <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="16"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
       <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="16"/>
+      <c r="A152" s="15"/>
       <c r="B152" s="5"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -3791,7 +4373,7 @@
       <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="16"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="5"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -3801,17 +4383,17 @@
       <c r="H153" s="8"/>
     </row>
     <row r="154" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="16"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
       <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="16"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="5"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -3821,7 +4403,7 @@
       <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="16"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="5"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3831,57 +4413,57 @@
       <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="16"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="5"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
       <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16"/>
+      <c r="A158" s="15"/>
       <c r="B158" s="5"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
       <c r="H158" s="8"/>
     </row>
     <row r="159" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="16"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
       <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="16"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
       <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="16"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="5"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
       <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="16"/>
+      <c r="A162" s="15"/>
       <c r="B162" s="5"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -3891,7 +4473,7 @@
       <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="16"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="5"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3901,7 +4483,7 @@
       <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="16"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="5"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -3911,17 +4493,17 @@
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="16"/>
+      <c r="A165" s="15"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
       <c r="H165" s="8"/>
     </row>
     <row r="166" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="16"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="5"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -3931,7 +4513,7 @@
       <c r="H166" s="8"/>
     </row>
     <row r="167" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="16"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="5"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -3941,7 +4523,7 @@
       <c r="H167" s="8"/>
     </row>
     <row r="168" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="16"/>
+      <c r="A168" s="15"/>
       <c r="B168" s="5"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -3951,7 +4533,7 @@
       <c r="H168" s="8"/>
     </row>
     <row r="169" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="16"/>
+      <c r="A169" s="15"/>
       <c r="B169" s="5"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -3961,7 +4543,7 @@
       <c r="H169" s="8"/>
     </row>
     <row r="170" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A170" s="16"/>
+      <c r="A170" s="15"/>
       <c r="B170" s="5"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -3971,17 +4553,17 @@
       <c r="H170" s="8"/>
     </row>
     <row r="171" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="16"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="5"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
       <c r="H171" s="8"/>
     </row>
     <row r="172" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A172" s="16"/>
+      <c r="A172" s="15"/>
       <c r="B172" s="5"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -3991,7 +4573,7 @@
       <c r="H172" s="8"/>
     </row>
     <row r="173" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A173" s="16"/>
+      <c r="A173" s="15"/>
       <c r="B173" s="5"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -4001,27 +4583,27 @@
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A174" s="16"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="5"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A175" s="16"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="5"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
       <c r="H175" s="8"/>
     </row>
     <row r="176" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A176" s="16"/>
+      <c r="A176" s="15"/>
       <c r="B176" s="5"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -4031,7 +4613,7 @@
       <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="16"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="5"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -4041,7 +4623,7 @@
       <c r="H177" s="8"/>
     </row>
     <row r="178" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="16"/>
+      <c r="A178" s="15"/>
       <c r="B178" s="5"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -4051,7 +4633,7 @@
       <c r="H178" s="8"/>
     </row>
     <row r="179" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A179" s="16"/>
+      <c r="A179" s="15"/>
       <c r="B179" s="5"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -4061,7 +4643,7 @@
       <c r="H179" s="8"/>
     </row>
     <row r="180" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="16"/>
+      <c r="A180" s="15"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -4070,16 +4652,16 @@
       <c r="H180" s="8"/>
     </row>
     <row r="181" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A181" s="16"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="A181" s="15"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
       <c r="H181" s="8"/>
     </row>
     <row r="182" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A182" s="16"/>
+      <c r="A182" s="15"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -4088,7 +4670,7 @@
       <c r="H182" s="8"/>
     </row>
     <row r="183" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A183" s="16"/>
+      <c r="A183" s="15"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -4097,7 +4679,7 @@
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A184" s="16"/>
+      <c r="A184" s="15"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -4106,7 +4688,7 @@
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A185" s="16"/>
+      <c r="A185" s="15"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -4115,7 +4697,7 @@
       <c r="H185" s="8"/>
     </row>
     <row r="186" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A186" s="16"/>
+      <c r="A186" s="15"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -4124,7 +4706,7 @@
       <c r="H186" s="8"/>
     </row>
     <row r="187" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A187" s="16"/>
+      <c r="A187" s="15"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
@@ -4133,7 +4715,7 @@
       <c r="H187" s="8"/>
     </row>
     <row r="188" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A188" s="16"/>
+      <c r="A188" s="15"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -4142,16 +4724,16 @@
       <c r="H188" s="8"/>
     </row>
     <row r="189" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A189" s="16"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="A189" s="15"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
       <c r="H189" s="8"/>
     </row>
     <row r="190" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A190" s="16"/>
+      <c r="A190" s="15"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -4160,7 +4742,7 @@
       <c r="H190" s="8"/>
     </row>
     <row r="191" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A191" s="16"/>
+      <c r="A191" s="15"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -4169,7 +4751,7 @@
       <c r="H191" s="8"/>
     </row>
     <row r="192" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A192" s="16"/>
+      <c r="A192" s="15"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -4178,7 +4760,7 @@
       <c r="H192" s="8"/>
     </row>
     <row r="193" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A193" s="16"/>
+      <c r="A193" s="15"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -4187,7 +4769,7 @@
       <c r="H193" s="8"/>
     </row>
     <row r="194" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A194" s="16"/>
+      <c r="A194" s="15"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -4212,11 +4794,11 @@
       <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
       <c r="H197" s="8"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -4255,573 +4837,413 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B104:B138 B16:B23 B27:B35 B37:B53 B170:B179">
-    <cfRule type="cellIs" dxfId="113" priority="312" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B169 B3:B53">
-    <cfRule type="cellIs" dxfId="112" priority="260" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="111" priority="259" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3 B6:B10">
-    <cfRule type="cellIs" dxfId="110" priority="258" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="cellIs" dxfId="109" priority="239" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="108" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="239" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="cellIs" dxfId="107" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="106" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="243" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="105" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="104" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="cellIs" dxfId="103" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="240" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="102" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="101" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="100" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="99" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="98" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="97" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="cellIs" dxfId="96" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="233" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="cellIs" dxfId="95" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="232" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="94" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="93" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="92" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="91" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="90" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="89" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="88" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150">
-    <cfRule type="cellIs" dxfId="87" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="223" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="86" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="85" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="84" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="cellIs" dxfId="83" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="219" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155">
-    <cfRule type="cellIs" dxfId="82" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="cellIs" dxfId="81" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="80" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="79" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="78" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="77" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="76" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="75" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="211" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="74" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="73" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="cellIs" dxfId="72" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166">
-    <cfRule type="cellIs" dxfId="71" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="207" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="cellIs" dxfId="70" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="cellIs" dxfId="69" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169">
-    <cfRule type="cellIs" dxfId="68" priority="204" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B73">
-    <cfRule type="cellIs" dxfId="67" priority="161" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B73">
-    <cfRule type="cellIs" dxfId="66" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B82">
-    <cfRule type="cellIs" dxfId="65" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B82">
-    <cfRule type="cellIs" dxfId="64" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B179">
-    <cfRule type="cellIs" dxfId="63" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A179">
-    <cfRule type="cellIs" dxfId="62" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A25">
-    <cfRule type="cellIs" dxfId="61" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:A1048576">
-    <cfRule type="cellIs" dxfId="60" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A169">
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A17">
-    <cfRule type="cellIs" dxfId="58" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A10">
-    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="56" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A186">
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="54" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:A194">
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A17">
-    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:A162">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A194">
-    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:A162">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A169">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A179">
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A17">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A146">
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:A154">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:A146">
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A146">
-    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:A162">
-    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A32">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A32">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A32">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A47">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A40">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A47">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A47">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A62">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A55">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A62">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A62">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A77">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A77">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A77">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A77">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A92">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A85">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A92">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A92">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A92">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A107">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A100">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A107">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A107">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A122">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A115">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A122">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A122">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A122">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:A137">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:A130">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:A137">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A137">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A137">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
